--- a/b2btunnelconfiguration.xlsx
+++ b/b2btunnelconfiguration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGP3\Box\Shivakumar.Gopal@vistraenergy.com\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGP3\Documents\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB87E6F-DCC0-49A1-BCFD-1B02173993C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA609E26-4BC1-4869-9697-A9EC5449ACB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7755" firstSheet="4" activeTab="6" xr2:uid="{96E4B695-1D83-4BB4-84F1-1241F3C22893}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7755" xr2:uid="{96E4B695-1D83-4BB4-84F1-1241F3C22893}"/>
   </bookViews>
   <sheets>
     <sheet name="tunnelinterface" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Tunnel Interface for XYZ purpose</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>192.168.1.0/24</t>
+  </si>
+  <si>
+    <t>Tunnel Interface for TEST_XYZ purpose</t>
   </si>
 </sst>
 </file>
@@ -507,15 +507,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D77331-A872-4BDF-9A52-D0691BD05CCD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -562,21 +562,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -606,33 +606,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -661,30 +661,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -711,33 +711,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>3600</v>
@@ -766,30 +766,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DC0C87-E74B-4AB1-A22E-4D57D4C96C23}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,30 +815,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/b2btunnelconfiguration.xlsx
+++ b/b2btunnelconfiguration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGP3\Documents\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA609E26-4BC1-4869-9697-A9EC5449ACB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22439B36-3557-4D53-8D9C-621EC044995A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7755" xr2:uid="{96E4B695-1D83-4BB4-84F1-1241F3C22893}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>192.168.1.0/24</t>
   </si>
   <si>
-    <t>Tunnel Interface for TEST_XYZ purpose</t>
+    <t>Tunnel Interface for TEST_ABC_XYZ purpose</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
